--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Swimming and Diving.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Swimming and Diving.xlsx
@@ -19,57 +19,57 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Most Valuable/Outstanding</t>
+  </si>
+  <si>
     <t>Oustanding Swimmer (Rotary)</t>
   </si>
   <si>
-    <t>Most Valuable/Outstanding</t>
+    <t>Spirited</t>
   </si>
   <si>
     <t>Most Improved (Nigel Hunter)</t>
   </si>
   <si>
+    <t>Improved</t>
+  </si>
+  <si>
+    <t>Inspirational</t>
+  </si>
+  <si>
+    <t>Coach's Award</t>
+  </si>
+  <si>
     <t>Inspirational (Carter)</t>
   </si>
   <si>
+    <t>Most Valuable Freshman</t>
+  </si>
+  <si>
     <t>MVP</t>
   </si>
   <si>
+    <t>Most Valuable Diving</t>
+  </si>
+  <si>
     <t>Most Spirited</t>
   </si>
   <si>
     <t>Best Diver</t>
   </si>
   <si>
-    <t>Outstanding</t>
-  </si>
-  <si>
     <t>Most Improved</t>
   </si>
   <si>
-    <t>Inspirational</t>
-  </si>
-  <si>
-    <t>Most Valuable Freshman</t>
-  </si>
-  <si>
     <t>image URL</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1HQHuNhskAyX0VQBRt7q9w_JjPoov4J18/view</t>
   </si>
   <si>
-    <t>Spirited</t>
-  </si>
-  <si>
-    <t>Improved</t>
-  </si>
-  <si>
-    <t>Coach's Award</t>
-  </si>
-  <si>
-    <t>Most Valuable Diving</t>
-  </si>
-  <si>
     <t>DEFAULT IMAGE</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>Stephen Cho</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1ki2VwNTi7kTCSpbYq5QoQFnTvtBzOm16/view</t>
+  </si>
+  <si>
     <t>Todd Nguyen</t>
   </si>
   <si>
@@ -106,12 +109,12 @@
     <t>Todd Ngyuen</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1HG1wYcaMn1LNxJ2EH4Iygghzn_WtQLwB/view</t>
+  </si>
+  <si>
     <t>2010/2011</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ki2VwNTi7kTCSpbYq5QoQFnTvtBzOm16/view</t>
-  </si>
-  <si>
     <t>2011/2012</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>Brian Lew</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HG1wYcaMn1LNxJ2EH4Iygghzn_WtQLwB/view</t>
+    <t>1972/1973</t>
   </si>
   <si>
     <t>2012/2013</t>
@@ -130,21 +133,45 @@
     <t>James Guzzo</t>
   </si>
   <si>
+    <t>Greg Smith</t>
+  </si>
+  <si>
     <t>Miles Mackenzie</t>
   </si>
   <si>
+    <t>Harry Hendon</t>
+  </si>
+  <si>
     <t>Graham Schmelzer</t>
   </si>
   <si>
     <t>Lukas Andreasen</t>
   </si>
   <si>
+    <t>1973/1974</t>
+  </si>
+  <si>
+    <t>Warren Wood</t>
+  </si>
+  <si>
+    <t>Jeff Holmboe</t>
+  </si>
+  <si>
+    <t>1974/1975</t>
+  </si>
+  <si>
     <t>2013/2014</t>
   </si>
   <si>
+    <t>Steve Skidore</t>
+  </si>
+  <si>
     <t>Michael Guo</t>
   </si>
   <si>
+    <t>Doug Heeter</t>
+  </si>
+  <si>
     <t>Chris Metz</t>
   </si>
   <si>
@@ -154,6 +181,9 @@
     <t>Arjun Ramanathan</t>
   </si>
   <si>
+    <t>Ben Fisher</t>
+  </si>
+  <si>
     <t>2014/2015</t>
   </si>
   <si>
@@ -166,126 +196,135 @@
     <t>Ryan Ahrari</t>
   </si>
   <si>
+    <t>1975/1976</t>
+  </si>
+  <si>
+    <t>Brian Croll</t>
+  </si>
+  <si>
+    <t>Gregg McKenzie</t>
+  </si>
+  <si>
+    <t>Jim Holmboe</t>
+  </si>
+  <si>
     <t>2015/2016</t>
   </si>
   <si>
+    <t>1985/1986</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
     <t>Andrew Gao</t>
   </si>
   <si>
+    <t>Krissy Arthur</t>
+  </si>
+  <si>
+    <t>Erik Peterson</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>Sam Galss</t>
+  </si>
+  <si>
+    <t>Dane Christensen</t>
+  </si>
+  <si>
     <t>Derek Fung</t>
   </si>
   <si>
+    <t>Karen Irvine</t>
+  </si>
+  <si>
+    <t>Rob Lincoln</t>
+  </si>
+  <si>
+    <t>Jennie Meehan</t>
+  </si>
+  <si>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Karen Dalton</t>
+  </si>
+  <si>
+    <t>Steve Pal</t>
+  </si>
+  <si>
+    <t>1986/1987</t>
+  </si>
+  <si>
+    <t>Desiree Curry</t>
+  </si>
+  <si>
     <t>2016/2017</t>
   </si>
   <si>
-    <t>1972/1973</t>
-  </si>
-  <si>
-    <t>Greg Smith</t>
+    <t>David Wood</t>
   </si>
   <si>
     <t>2017/2018</t>
   </si>
   <si>
-    <t>Harry Hendon</t>
+    <t>Eliot Jacobsen</t>
   </si>
   <si>
     <t>Lukas Peng</t>
   </si>
   <si>
+    <t>Liz LaBonte</t>
+  </si>
+  <si>
     <t>Ethan Dickson-Child</t>
   </si>
   <si>
+    <t>1979/1980</t>
+  </si>
+  <si>
     <t>Sean Chen</t>
   </si>
   <si>
+    <t>Lincoln Tom</t>
+  </si>
+  <si>
+    <t>1987/1988</t>
+  </si>
+  <si>
     <t>2018/2019</t>
   </si>
   <si>
-    <t>1973/1974</t>
+    <t>Keri Higginbottom</t>
   </si>
   <si>
     <t>Ethan Chan</t>
   </si>
   <si>
-    <t>Warren Wood</t>
-  </si>
-  <si>
-    <t>Jeff Holmboe</t>
+    <t>Kristin Vendelin</t>
   </si>
   <si>
     <t>Melchior Tenant de la Tour</t>
   </si>
   <si>
+    <t>Andrea Horner</t>
+  </si>
+  <si>
     <t>Kendal Jarvis</t>
   </si>
   <si>
-    <t>1974/1975</t>
-  </si>
-  <si>
-    <t>Steve Skidore</t>
-  </si>
-  <si>
-    <t>Doug Heeter</t>
-  </si>
-  <si>
-    <t>Ben Fisher</t>
-  </si>
-  <si>
-    <t>1975/1976</t>
-  </si>
-  <si>
-    <t>Brian Croll</t>
-  </si>
-  <si>
-    <t>Gregg McKenzie</t>
-  </si>
-  <si>
-    <t>Jim Holmboe</t>
-  </si>
-  <si>
-    <t>1976/1977</t>
-  </si>
-  <si>
-    <t>Erik Peterson</t>
-  </si>
-  <si>
-    <t>1977/1978</t>
-  </si>
-  <si>
-    <t>Sam Galss</t>
-  </si>
-  <si>
-    <t>Dane Christensen</t>
-  </si>
-  <si>
-    <t>Rob Lincoln</t>
-  </si>
-  <si>
-    <t>1978/1979</t>
-  </si>
-  <si>
-    <t>Steve Pal</t>
-  </si>
-  <si>
-    <t>David Wood</t>
-  </si>
-  <si>
-    <t>Eliot Jacobsen</t>
-  </si>
-  <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
-    <t>Lincoln Tom</t>
-  </si>
-  <si>
     <t>1980/1981</t>
   </si>
   <si>
     <t>Chris Hinshaw</t>
   </si>
   <si>
+    <t>1988/1989</t>
+  </si>
+  <si>
     <t>1981/1982</t>
   </si>
   <si>
@@ -316,37 +355,64 @@
     <t>David uir</t>
   </si>
   <si>
+    <t>1989/1990</t>
+  </si>
+  <si>
+    <t>Danielle Rossi</t>
+  </si>
+  <si>
     <t>1984/1985</t>
   </si>
   <si>
+    <t>Dawn Nozaka</t>
+  </si>
+  <si>
+    <t>Kim Duesel</t>
+  </si>
+  <si>
     <t>Mike Lee</t>
   </si>
   <si>
+    <t>Griselda Gonzalez</t>
+  </si>
+  <si>
     <t>Greg Royse</t>
   </si>
   <si>
-    <t>1985/1986</t>
+    <t>1990/1991</t>
+  </si>
+  <si>
+    <t>Keren Jacobs</t>
+  </si>
+  <si>
+    <t>Sarah Newton</t>
   </si>
   <si>
     <t>Peter Newton</t>
   </si>
   <si>
-    <t>1986/1987</t>
+    <t>1991/1992</t>
+  </si>
+  <si>
+    <t>Kelley Moore</t>
+  </si>
+  <si>
+    <t>Michelle Becker</t>
   </si>
   <si>
     <t>Steve Liao</t>
   </si>
   <si>
+    <t>1992/1993</t>
+  </si>
+  <si>
     <t>Tim Mitchell</t>
   </si>
   <si>
-    <t>Krissy Arthur</t>
-  </si>
-  <si>
-    <t>1987/1988</t>
-  </si>
-  <si>
-    <t>Karen Irvine</t>
+    <t>Machiko Watanabe</t>
+  </si>
+  <si>
+    <t>Cory Bosworth</t>
   </si>
   <si>
     <t>Ed Owen</t>
@@ -355,37 +421,55 @@
     <t>Andy Meehan</t>
   </si>
   <si>
-    <t>Jennie Meehan</t>
-  </si>
-  <si>
-    <t>Karen Dalton</t>
-  </si>
-  <si>
-    <t>1988/1989</t>
+    <t>1993/1994</t>
+  </si>
+  <si>
+    <t>Kristin Murphy</t>
+  </si>
+  <si>
+    <t>Anita Engelman</t>
   </si>
   <si>
     <t>Andy Meehan &amp; Ed Owen</t>
   </si>
   <si>
+    <t>1994/1995</t>
+  </si>
+  <si>
     <t>Jason Kral</t>
   </si>
   <si>
-    <t>Desiree Curry</t>
+    <t>Lynna Jamison</t>
   </si>
   <si>
     <t>Doug Call</t>
   </si>
   <si>
-    <t>1989/1990</t>
+    <t>Alison Yeung</t>
+  </si>
+  <si>
+    <t>Kristi Nabbefeld</t>
   </si>
   <si>
     <t xml:space="preserve">Andy Meehan </t>
   </si>
   <si>
+    <t>1995/1996</t>
+  </si>
+  <si>
+    <t>Michelle Charters</t>
+  </si>
+  <si>
+    <t>Danielle Tobin</t>
+  </si>
+  <si>
+    <t>Cari Cowdery</t>
+  </si>
+  <si>
     <t>Briang Nugent</t>
   </si>
   <si>
-    <t>1990/1991</t>
+    <t>Anne Ricketts</t>
   </si>
   <si>
     <t>John Lorton</t>
@@ -394,37 +478,19 @@
     <t>Ross Bachman</t>
   </si>
   <si>
-    <t>1991/1992</t>
-  </si>
-  <si>
     <t>Michael Janjigian</t>
   </si>
   <si>
-    <t>Liz LaBonte</t>
-  </si>
-  <si>
     <t>Joe Andolina</t>
   </si>
   <si>
-    <t>1992/1993</t>
-  </si>
-  <si>
-    <t>Keri Higginbottom</t>
-  </si>
-  <si>
     <t>Jeff Adorador</t>
   </si>
   <si>
-    <t>Kristin Vendelin</t>
-  </si>
-  <si>
     <t>Alberto Gambacarta</t>
   </si>
   <si>
-    <t>Andrea Horner</t>
-  </si>
-  <si>
-    <t>1993/1994</t>
+    <t>1996/1997</t>
   </si>
   <si>
     <t>Chris Kron</t>
@@ -433,64 +499,124 @@
     <t>Tim Adams</t>
   </si>
   <si>
-    <t>1994/1995</t>
-  </si>
-  <si>
     <t>Todd Combellick</t>
   </si>
   <si>
+    <t>1997/1998</t>
+  </si>
+  <si>
     <t>Walter Knight</t>
   </si>
   <si>
-    <t>1995/1996</t>
+    <t>Jennifer Cheung</t>
+  </si>
+  <si>
+    <t>Kim Ashburn</t>
+  </si>
+  <si>
+    <t>Rachel Hartsfield</t>
+  </si>
+  <si>
+    <t>1998/1999</t>
+  </si>
+  <si>
+    <t>Cecelia Dotzler</t>
   </si>
   <si>
     <t>Gur Doitel</t>
   </si>
   <si>
-    <t>1996/1997</t>
+    <t>Lindsey Levin</t>
+  </si>
+  <si>
+    <t>Jessica So</t>
   </si>
   <si>
     <t>todd Combellick</t>
   </si>
   <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
     <t>Jordan Jones</t>
   </si>
   <si>
-    <t>1997/1998</t>
+    <t>Sarah Oberhauser</t>
+  </si>
+  <si>
+    <t>Annie Dao</t>
+  </si>
+  <si>
+    <t>Lauren Van Hoesen</t>
   </si>
   <si>
     <t>Todd Combellick&amp;Chipper Martin III</t>
   </si>
   <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
     <t>David Breitenbach</t>
   </si>
   <si>
-    <t>1998/1999</t>
+    <t>Kristin Barnes</t>
+  </si>
+  <si>
+    <t>Irene Fan</t>
+  </si>
+  <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>Elizabeth Molzon</t>
+  </si>
+  <si>
+    <t>Eva Leung</t>
   </si>
   <si>
     <t>Omar Malik</t>
   </si>
   <si>
+    <t>Jessica Douglas</t>
+  </si>
+  <si>
     <t>Schuyler Lovoi</t>
   </si>
   <si>
-    <t>1999/2000</t>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>Lauren Woodrow</t>
+  </si>
+  <si>
+    <t>Lisa Chu</t>
   </si>
   <si>
     <t>McCord Bladkwell</t>
   </si>
   <si>
-    <t>2000/2001</t>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>Emily Huniz</t>
   </si>
   <si>
     <t>Roger Tsai</t>
   </si>
   <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
     <t>Lee Blair</t>
   </si>
   <si>
-    <t>2001/2002</t>
+    <t>Hayes Hyde</t>
+  </si>
+  <si>
+    <t>Samantha Ng</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
   </si>
   <si>
     <t>Roger Tsia</t>
@@ -499,40 +625,46 @@
     <t>Franklin Tsai</t>
   </si>
   <si>
-    <t>2002/2003</t>
+    <t>Kimi Hosseinian</t>
   </si>
   <si>
     <t>Brandon Smith</t>
   </si>
   <si>
-    <t>2003/2004</t>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>Erica Kumal</t>
+  </si>
+  <si>
+    <t>Courtney Nolet</t>
   </si>
   <si>
     <t>Fred Hwang</t>
   </si>
   <si>
-    <t>Danielle Rossi</t>
-  </si>
-  <si>
-    <t>Dawn Nozaka</t>
-  </si>
-  <si>
-    <t>2004/2005</t>
-  </si>
-  <si>
-    <t>Kim Duesel</t>
+    <t>Naatalie Spencer</t>
   </si>
   <si>
     <t>Frank Tsai</t>
   </si>
   <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
     <t>Sean Bromage</t>
   </si>
   <si>
-    <t>Griselda Gonzalez</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
+    <t>Allison Norris</t>
+  </si>
+  <si>
+    <t>Abigail Conroy</t>
+  </si>
+  <si>
+    <t>Kimiya Hosseinian</t>
+  </si>
+  <si>
+    <t>Lauren Gardanier</t>
   </si>
   <si>
     <t>Benjamin Hinshaw</t>
@@ -541,121 +673,88 @@
     <t>Take Kurosawa</t>
   </si>
   <si>
-    <t>Keren Jacobs</t>
-  </si>
-  <si>
-    <t>Sarah Newton</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>Kelley Moore</t>
-  </si>
-  <si>
-    <t>Michelle Becker</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
+    <t>Chrstine LA</t>
+  </si>
+  <si>
+    <t>Megan Nolet</t>
   </si>
   <si>
     <t>Matthew Murray</t>
   </si>
   <si>
-    <t>Machiko Watanabe</t>
-  </si>
-  <si>
-    <t>Cory Bosworth</t>
-  </si>
-  <si>
-    <t>Kristin Murphy</t>
-  </si>
-  <si>
-    <t>Anita Engelman</t>
-  </si>
-  <si>
-    <t>Lynna Jamison</t>
-  </si>
-  <si>
-    <t>Alison Yeung</t>
-  </si>
-  <si>
-    <t>Kristi Nabbefeld</t>
-  </si>
-  <si>
-    <t>Michelle Charters</t>
-  </si>
-  <si>
-    <t>Danielle Tobin</t>
-  </si>
-  <si>
-    <t>Cari Cowdery</t>
-  </si>
-  <si>
-    <t>Anne Ricketts</t>
+    <t xml:space="preserve">Most Outstanding </t>
   </si>
   <si>
     <t>Kevin Rollinson</t>
   </si>
   <si>
+    <t>Lauren Opatrny</t>
+  </si>
+  <si>
+    <t>Most Inspirational</t>
+  </si>
+  <si>
+    <t>Laruen Gardiner</t>
+  </si>
+  <si>
+    <t>Stephanie Chen</t>
+  </si>
+  <si>
     <t>Kyle Borch</t>
   </si>
   <si>
+    <t>Natalie Cheung</t>
+  </si>
+  <si>
+    <t>Sophie Heyman</t>
+  </si>
+  <si>
+    <t>Emily Williams</t>
+  </si>
+  <si>
     <t>Justin Chung</t>
   </si>
   <si>
+    <t>Janey Heyman</t>
+  </si>
+  <si>
     <t>Adam Hinshaw</t>
   </si>
   <si>
-    <t>Jennifer Cheung</t>
-  </si>
-  <si>
-    <t>Kim Ashburn</t>
-  </si>
-  <si>
-    <t>Rachel Hartsfield</t>
+    <t>Nikki De Roos</t>
   </si>
   <si>
     <t>Will Tang</t>
   </si>
   <si>
-    <t>Cecelia Dotzler</t>
-  </si>
-  <si>
     <t>Tim Rollinson</t>
   </si>
   <si>
-    <t>Lindsey Levin</t>
-  </si>
-  <si>
     <t>Mitch Miller</t>
   </si>
   <si>
-    <t>Jessica So</t>
-  </si>
-  <si>
-    <t>Sarah Oberhauser</t>
-  </si>
-  <si>
-    <t>Annie Dao</t>
+    <t>Diving MVP</t>
+  </si>
+  <si>
+    <t>Maya Srinivasan</t>
+  </si>
+  <si>
+    <t>Yayla Sezinger</t>
   </si>
   <si>
     <t>Sasha Samoilov</t>
   </si>
   <si>
-    <t>Lauren Van Hoesen</t>
-  </si>
-  <si>
     <t>Ian Burns</t>
   </si>
   <si>
-    <t>Kristin Barnes</t>
+    <t>Amanda Moriarty</t>
   </si>
   <si>
     <t>Michael Lee</t>
   </si>
   <si>
-    <t>Irene Fan</t>
+    <t>Yayla Sezginer</t>
   </si>
   <si>
     <t>Brian Leung</t>
@@ -664,37 +763,37 @@
     <t>Aidan Burns</t>
   </si>
   <si>
-    <t>Elizabeth Molzon</t>
-  </si>
-  <si>
-    <t>Eva Leung</t>
-  </si>
-  <si>
-    <t>Jessica Douglas</t>
+    <t>Stefanie Ting</t>
+  </si>
+  <si>
+    <t>Madison Gress</t>
+  </si>
+  <si>
+    <t>Jennifer Miller</t>
   </si>
   <si>
     <t>Kenneth Leung</t>
   </si>
   <si>
+    <t>Jeanette Khowong</t>
+  </si>
+  <si>
     <t>Patrick Xiao</t>
   </si>
   <si>
-    <t>Lauren Woodrow</t>
+    <t>Mattie Liu</t>
   </si>
   <si>
     <t>Bradley Newton</t>
   </si>
   <si>
-    <t>Lisa Chu</t>
-  </si>
-  <si>
-    <t>Emily Huniz</t>
-  </si>
-  <si>
-    <t>Hayes Hyde</t>
-  </si>
-  <si>
-    <t>Samantha Ng</t>
+    <t>Angela Kempf Luu</t>
+  </si>
+  <si>
+    <t>Kailyn Koerber</t>
+  </si>
+  <si>
+    <t>Madeline Stuart</t>
   </si>
   <si>
     <t>Jack Xie</t>
@@ -703,82 +802,61 @@
     <t>Jonathan Fung</t>
   </si>
   <si>
-    <t>Kimi Hosseinian</t>
-  </si>
-  <si>
-    <t>Erica Kumal</t>
-  </si>
-  <si>
-    <t>Courtney Nolet</t>
-  </si>
-  <si>
-    <t>Naatalie Spencer</t>
+    <t>Angela Kempf-Luu</t>
+  </si>
+  <si>
+    <t>Bhavana Vadreau</t>
+  </si>
+  <si>
+    <t>Gabriela Romo</t>
   </si>
   <si>
     <t>Aria Javanmard</t>
   </si>
   <si>
-    <t>Allison Norris</t>
-  </si>
-  <si>
-    <t>Abigail Conroy</t>
-  </si>
-  <si>
-    <t>Kimiya Hosseinian</t>
-  </si>
-  <si>
-    <t>Lauren Gardanier</t>
-  </si>
-  <si>
-    <t>Chrstine LA</t>
-  </si>
-  <si>
-    <t>Megan Nolet</t>
-  </si>
-  <si>
-    <t>Lauren Opatrny</t>
-  </si>
-  <si>
     <t>2016-2017</t>
   </si>
   <si>
-    <t>Laruen Gardiner</t>
+    <t>Elise Nguyen</t>
   </si>
   <si>
     <t>None Given</t>
   </si>
   <si>
-    <t>Stephanie Chen</t>
-  </si>
-  <si>
     <t>Nathan Ching</t>
   </si>
   <si>
+    <t>Shelby Sellers</t>
+  </si>
+  <si>
     <t>Nick Burry</t>
   </si>
   <si>
-    <t>Natalie Cheung</t>
-  </si>
-  <si>
-    <t>Sophie Heyman</t>
-  </si>
-  <si>
-    <t>Emily Williams</t>
-  </si>
-  <si>
     <t>2017-2018</t>
   </si>
   <si>
-    <t>Janey Heyman</t>
-  </si>
-  <si>
     <t>Taesu Yim</t>
   </si>
   <si>
+    <t>Lei Otsuka</t>
+  </si>
+  <si>
+    <t>Kaitlyn Lee</t>
+  </si>
+  <si>
+    <t>Giana Kettman</t>
+  </si>
+  <si>
+    <t>Annika Donez</t>
+  </si>
+  <si>
     <t>Brandon Fung</t>
   </si>
   <si>
-    <t>Nikki De Roos</t>
+    <t>Irene Chen</t>
+  </si>
+  <si>
+    <t>Neeyati Devanagondi</t>
   </si>
   <si>
     <t>2018-2019</t>
@@ -790,91 +868,13 @@
     <t>Daniel Bessonov</t>
   </si>
   <si>
+    <t>Grace Stuart</t>
+  </si>
+  <si>
     <t>Tommaso Morini Bianzino</t>
   </si>
   <si>
-    <t>Maya Srinivasan</t>
-  </si>
-  <si>
-    <t>Yayla Sezinger</t>
-  </si>
-  <si>
-    <t>Amanda Moriarty</t>
-  </si>
-  <si>
-    <t>Yayla Sezginer</t>
-  </si>
-  <si>
-    <t>Stefanie Ting</t>
-  </si>
-  <si>
-    <t>Madison Gress</t>
-  </si>
-  <si>
-    <t>Jennifer Miller</t>
-  </si>
-  <si>
-    <t>Jeanette Khowong</t>
-  </si>
-  <si>
-    <t>Kailyn Koerber</t>
-  </si>
-  <si>
-    <t>Madeline Stuart</t>
-  </si>
-  <si>
-    <t>Lei Otsuka</t>
-  </si>
-  <si>
-    <t>Kaitlyn Lee</t>
-  </si>
-  <si>
-    <t>Annika Donez</t>
-  </si>
-  <si>
-    <t>Neeyati Devanagondi</t>
-  </si>
-  <si>
-    <t>Grace Stuart</t>
-  </si>
-  <si>
     <t>Isabel Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most Outstanding </t>
-  </si>
-  <si>
-    <t>Most Inspirational</t>
-  </si>
-  <si>
-    <t>Diving MVP</t>
-  </si>
-  <si>
-    <t>Mattie Liu</t>
-  </si>
-  <si>
-    <t>Angela Kempf Luu</t>
-  </si>
-  <si>
-    <t>Angela Kempf-Luu</t>
-  </si>
-  <si>
-    <t>Bhavana Vadreau</t>
-  </si>
-  <si>
-    <t>Gabriela Romo</t>
-  </si>
-  <si>
-    <t>Elise Nguyen</t>
-  </si>
-  <si>
-    <t>Shelby Sellers</t>
-  </si>
-  <si>
-    <t>Giana Kettman</t>
-  </si>
-  <si>
-    <t>Irene Chen</t>
   </si>
   <si>
     <t>Constanza Bravo-Rossainz</t>
@@ -926,10 +926,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -983,74 +983,74 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,29 +1096,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>7</v>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
@@ -1161,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>18</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1201,85 +1201,85 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1327,235 +1327,235 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="11" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="11" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="11" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="11" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="11" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="11" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="11" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="11" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="11" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="11" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="11" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="11" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1564,28 +1564,28 @@
         <v>139</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="11" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1633,31 +1633,31 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="11" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1747,13 +1747,13 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1763,11 +1763,11 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -1807,17 +1807,17 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1825,22 +1825,22 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="H41" s="11" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -1852,27 +1852,27 @@
       <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="H42" s="11" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="11" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="11" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
@@ -1882,34 +1882,34 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="11" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="11" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>21</v>
@@ -1918,7 +1918,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1946,87 +1946,87 @@
     <row r="48">
       <c r="A48" s="12"/>
       <c r="D48" s="14" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53">
-      <c r="D53" s="20" t="s">
-        <v>51</v>
+      <c r="D53" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2060,116 +2060,116 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>103</v>
+      <c r="A3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>105</v>
+      <c r="A4" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15"/>
       <c r="B5" s="14" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>109</v>
+      <c r="A6" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -2199,140 +2199,140 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>120</v>
+      <c r="A8" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>178</v>
-      </c>
       <c r="D10" s="14" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>130</v>
+      <c r="A11" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>184</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>142</v>
+      <c r="A14" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="19" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -2362,329 +2362,329 @@
       <c r="AA16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>147</v>
+      <c r="A17" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="D24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D25" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="B26" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>231</v>
-      </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>180</v>
+      <c r="A28" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>26</v>
+      <c r="A30" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="14" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E33" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>261</v>
-      </c>
       <c r="D34" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
-        <v>53</v>
+      <c r="A38" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2714,43 +2714,43 @@
       <c r="AA38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
-        <v>56</v>
+      <c r="A39" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="s">
-        <v>61</v>
+      <c r="A40" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41">
@@ -5691,26 +5691,26 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
@@ -5852,12 +5852,12 @@
     <row r="5">
       <c r="A5" s="12"/>
       <c r="B5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -5885,19 +5885,19 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="2"/>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5955,17 +5955,17 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="2"/>
@@ -5995,7 +5995,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="2"/>
@@ -6025,22 +6025,22 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -6065,20 +6065,20 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -6105,17 +6105,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6143,49 +6143,49 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6212,23 +6212,23 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>277</v>
+      <c r="B1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>239</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
@@ -6292,17 +6292,17 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="11" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -6327,17 +6327,17 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -6362,16 +6362,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6397,19 +6397,19 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>288</v>
@@ -6471,7 +6471,7 @@
         <v>289</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>290</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>289</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>293</v>
@@ -6547,15 +6547,15 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>295</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>297</v>
